--- a/format_patient.xlsx
+++ b/format_patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ID_CLIENT</t>
   </si>
@@ -33,9 +33,6 @@
     <t>PHONE</t>
   </si>
   <si>
-    <t>MESSAGE</t>
-  </si>
-  <si>
     <t>PHOTO</t>
   </si>
   <si>
@@ -91,21 +88,6 @@
   </si>
   <si>
     <t>GUIDO</t>
-  </si>
-  <si>
-    <t>Good afternoon, you have an appointment with Dr. Jesus 1 for 12/02/2001, please enter the following link to scan your insurance card</t>
-  </si>
-  <si>
-    <t>Good afternoon, you have an appointment with Dr. Jesus 2 for 12/02/2021, please enter the following link to scan your insurance card</t>
-  </si>
-  <si>
-    <t>Good afternoon, you have an appointment with Dr. Jesus 3 for 12/02/2001, please enter the following link to scan your insurance card</t>
-  </si>
-  <si>
-    <t>Good afternoon, you have an appointment with Dr. Jesus 4 for 12/02/2001, please enter the following link to scan your insurance card</t>
-  </si>
-  <si>
-    <t>Good afternoon, you have an appointment with Dr. Jesus 5 for 12/02/2001, please enter the following link to scan your insurance card</t>
   </si>
 </sst>
 </file>
@@ -453,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,10 +448,9 @@
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="129.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,130 +467,109 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
       </c>
       <c r="E2">
         <v>4142517231</v>
       </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>4241771570</v>
       </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>4244230132</v>
       </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>4242638782</v>
       </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>4241756745</v>
       </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>4125063154</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/format_patient.xlsx
+++ b/format_patient.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -438,7 +439,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
